--- a/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.657817866987255</v>
+        <v>3.6578178784609841</v>
       </c>
       <c r="C2">
-        <v>4.7883158697842019</v>
+        <v>4.788315844976526</v>
       </c>
       <c r="D2">
-        <v>30.169026257291407</v>
+        <v>30.169026169004685</v>
       </c>
       <c r="E2">
-        <v>33.038885635425743</v>
+        <v>33.038885986713332</v>
       </c>
       <c r="F2">
-        <v>12.927797285350996</v>
+        <v>12.927796103347845</v>
       </c>
       <c r="G2">
-        <v>8.8826107253899096</v>
+        <v>8.882612012672352</v>
       </c>
       <c r="H2">
-        <v>22.031266759541314</v>
+        <v>22.031265681352465</v>
       </c>
       <c r="I2">
-        <v>5.1593515201083369</v>
+        <v>5.1593515094821845</v>
       </c>
       <c r="J2">
-        <v>25.590931313029586</v>
+        <v>25.59093279928209</v>
       </c>
       <c r="K2">
-        <v>17.557727465942673</v>
+        <v>17.557727525424948</v>
       </c>
       <c r="L2">
-        <v>6.3752316175115835</v>
+        <v>6.3752322356049929</v>
       </c>
       <c r="M2">
-        <v>3.8980316688468508</v>
+        <v>3.8980315230377163</v>
       </c>
       <c r="N2">
-        <v>0.18316133679784433</v>
+        <v>0.1831613369729638</v>
       </c>
       <c r="O2">
-        <v>22.498551383170838</v>
+        <v>22.498550259740128</v>
       </c>
       <c r="P2">
-        <v>8.1243098513172569</v>
+        <v>8.1243098351058407</v>
       </c>
       <c r="Q2">
-        <v>4.5173775881807741</v>
+        <v>4.5173775526782798</v>
       </c>
       <c r="R2">
-        <v>6.9055733985179266</v>
+        <v>6.905573518806766</v>
       </c>
       <c r="S2">
-        <v>9.7296234716194423</v>
+        <v>9.7296158362972669</v>
       </c>
       <c r="T2">
-        <v>1.423505518437765</v>
+        <v>1.4235055291299823</v>
       </c>
       <c r="U2">
-        <v>6.3061465479459882</v>
+        <v>6.3061464006533798</v>
       </c>
       <c r="V2">
-        <v>18.638715187892348</v>
+        <v>18.638715519355539</v>
       </c>
       <c r="W2">
-        <v>8.2665444756760298</v>
+        <v>8.2665439650126071</v>
       </c>
       <c r="X2">
-        <v>6.4289388727125143</v>
+        <v>6.4289388610742106</v>
       </c>
       <c r="Y2">
-        <v>2.7241193258671728</v>
+        <v>2.724118982033398</v>
       </c>
       <c r="AA2">
-        <v>12.744401781815723</v>
+        <v>12.744408038409651</v>
       </c>
       <c r="AB2">
-        <v>6.2747224514784721</v>
+        <v>6.2747224652715374</v>
       </c>
       <c r="AC2">
-        <v>17.08842097389379</v>
+        <v>17.088418946411227</v>
       </c>
       <c r="AD2">
-        <v>18.599986955250717</v>
+        <v>18.599979345911461</v>
       </c>
       <c r="AE2">
-        <v>20.693433716202026</v>
+        <v>20.693433499688194</v>
       </c>
       <c r="AF2">
-        <v>8.8103252918108979</v>
+        <v>8.8103251749864793</v>
       </c>
       <c r="AG2">
-        <v>20.278956071683719</v>
+        <v>20.278956350975083</v>
       </c>
       <c r="AH2">
-        <v>2.9397866529542669</v>
+        <v>2.9397864294655314</v>
       </c>
       <c r="AI2">
-        <v>25.724265578680541</v>
+        <v>25.724265704011618</v>
       </c>
       <c r="AJ2">
-        <v>20.373235825920251</v>
+        <v>20.373236413802616</v>
       </c>
       <c r="AK2">
-        <v>6.3866170850347173</v>
+        <v>6.3866172008937658</v>
       </c>
       <c r="AL2">
-        <v>4.0852783895586073</v>
+        <v>4.0852784001608962</v>
       </c>
       <c r="AM2">
-        <v>2.3994262618913336</v>
+        <v>2.3994262606171302</v>
       </c>
       <c r="AN2">
-        <v>3.870869843535754</v>
+        <v>3.8708698498221517</v>
       </c>
       <c r="AO2">
-        <v>6.4868656504198983</v>
+        <v>6.4868656885035598</v>
       </c>
       <c r="AP2">
-        <v>4.7067620579590344</v>
+        <v>4.7067620496898535</v>
       </c>
       <c r="AQ2">
-        <v>4.2224481843707062</v>
+        <v>4.2224481990286042</v>
       </c>
       <c r="AR2">
-        <v>6.8737179269686735</v>
+        <v>6.873717954334829</v>
       </c>
       <c r="AS2">
-        <v>5.7709845155724322</v>
+        <v>5.77098447436651</v>
       </c>
       <c r="AT2">
-        <v>1.3954191766462418</v>
+        <v>1.3954191806252032</v>
       </c>
       <c r="AU2">
-        <v>10.495552831705238</v>
+        <v>10.495552828965845</v>
       </c>
       <c r="AV2">
-        <v>5.9816075824370083</v>
+        <v>5.9816082955525518</v>
       </c>
       <c r="AW2">
-        <v>1.5603407690969791</v>
+        <v>1.5603407737897264</v>
       </c>
       <c r="AX2">
-        <v>1.0037128742420773</v>
+        <v>1.0037128765181704</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.456314106216912</v>
+        <v>21.45631503455024</v>
       </c>
       <c r="C3">
-        <v>7.5250276462468975</v>
+        <v>7.5250276582661293</v>
       </c>
       <c r="D3">
-        <v>5.5136652509993196</v>
+        <v>5.513665455963185</v>
       </c>
       <c r="E3">
-        <v>26.049771753116048</v>
+        <v>26.049775610142586</v>
       </c>
       <c r="F3">
-        <v>7.1264036870035454</v>
+        <v>7.1264025636607871</v>
       </c>
       <c r="G3">
-        <v>7.4808297220097799</v>
+        <v>7.4808297155736314</v>
       </c>
       <c r="H3">
-        <v>21.879843850344994</v>
+        <v>21.879843824404389</v>
       </c>
       <c r="I3">
-        <v>4.8250666241938029</v>
+        <v>4.8250679003072605</v>
       </c>
       <c r="J3">
-        <v>17.049585396600296</v>
+        <v>17.049585412294217</v>
       </c>
       <c r="K3">
-        <v>6.7456813306193721</v>
+        <v>6.7456816761422074</v>
       </c>
       <c r="L3">
-        <v>3.6615029222361728</v>
+        <v>3.6615028774959875</v>
       </c>
       <c r="M3">
-        <v>13.61854870709036</v>
+        <v>13.609148234061207</v>
       </c>
       <c r="N3">
-        <v>1.5938355294829245</v>
+        <v>1.5938355652301459</v>
       </c>
       <c r="O3">
-        <v>8.0717061320871597</v>
+        <v>8.0717059160327356</v>
       </c>
       <c r="P3">
-        <v>6.9492414892849865</v>
+        <v>6.9492414480394151</v>
       </c>
       <c r="Q3">
-        <v>5.0013331608367269</v>
+        <v>5.0013331017533478</v>
       </c>
       <c r="R3">
-        <v>13.749156315631827</v>
+        <v>13.749156295846296</v>
       </c>
       <c r="S3">
-        <v>1.280088838305071</v>
+        <v>1.2800889698723645</v>
       </c>
       <c r="T3">
-        <v>1.0221290344525138</v>
+        <v>1.0221290400816849</v>
       </c>
       <c r="U3">
-        <v>12.811284227633465</v>
+        <v>12.811283936890774</v>
       </c>
       <c r="V3">
-        <v>9.0722004083707883</v>
+        <v>9.0722004274169876</v>
       </c>
       <c r="W3">
-        <v>1.905956827286025</v>
+        <v>1.9059568355949847</v>
       </c>
       <c r="X3">
-        <v>3.2904130345230809</v>
+        <v>3.2904132199270535</v>
       </c>
       <c r="Y3">
-        <v>3.2518983242217594</v>
+        <v>3.2518982656892503</v>
       </c>
       <c r="AA3">
-        <v>12.233261506463279</v>
+        <v>12.233263558613032</v>
       </c>
       <c r="AB3">
-        <v>27.39480322826061</v>
+        <v>27.394802989547188</v>
       </c>
       <c r="AC3">
-        <v>13.329307250210816</v>
+        <v>13.329307489163966</v>
       </c>
       <c r="AD3">
-        <v>17.69455990711668</v>
+        <v>17.694561507071928</v>
       </c>
       <c r="AE3">
-        <v>20.106287070837514</v>
+        <v>20.106285829586849</v>
       </c>
       <c r="AF3">
-        <v>5.1722218046918291</v>
+        <v>5.1722217999313971</v>
       </c>
       <c r="AG3">
-        <v>18.627974472363146</v>
+        <v>18.627974711671772</v>
       </c>
       <c r="AH3">
-        <v>3.8221056431836193</v>
+        <v>3.8221056328824865</v>
       </c>
       <c r="AI3">
-        <v>19.325446572720377</v>
+        <v>19.325446440602693</v>
       </c>
       <c r="AJ3">
-        <v>10.542867035337609</v>
+        <v>10.542867034709497</v>
       </c>
       <c r="AK3">
-        <v>4.4017704096401431</v>
+        <v>4.4017703114087769</v>
       </c>
       <c r="AL3">
-        <v>10.142688787654388</v>
+        <v>10.142689377128592</v>
       </c>
       <c r="AM3">
-        <v>6.7690075480322518</v>
+        <v>6.7690085495513559</v>
       </c>
       <c r="AN3">
-        <v>10.798459957511009</v>
+        <v>10.79845978970932</v>
       </c>
       <c r="AO3">
-        <v>8.3659593790542228</v>
+        <v>8.3659602541050795</v>
       </c>
       <c r="AP3">
-        <v>1.2268732300251288</v>
+        <v>1.2268735698086883</v>
       </c>
       <c r="AQ3">
-        <v>3.631160533982507</v>
+        <v>3.6311605939855949</v>
       </c>
       <c r="AR3">
-        <v>1.6236982659118491</v>
+        <v>1.6236983140968855</v>
       </c>
       <c r="AS3">
-        <v>1.6366126839390753</v>
+        <v>1.6366125963841174</v>
       </c>
       <c r="AT3">
-        <v>4.5760227951168329</v>
+        <v>4.5760230534065096</v>
       </c>
       <c r="AU3">
-        <v>13.658264163754282</v>
+        <v>13.658264168528566</v>
       </c>
       <c r="AV3">
-        <v>7.0786375510254329</v>
+        <v>7.0786363412342714</v>
       </c>
       <c r="AW3">
-        <v>8.5378191284483709</v>
+        <v>8.5378194560209515</v>
       </c>
       <c r="AX3">
-        <v>3.8255041866331445</v>
+        <v>3.8255036083151999</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3.6578178784609841</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.788315844976526</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>30.169026169004685</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.038885986713332</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>12.927796103347845</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.882612012672352</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>22.031265681352465</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.1593515094821845</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>25.59093279928209</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.557727525424948</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.3752322356049929</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.8980315230377163</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1831613369729638</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>22.498550259740128</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>8.1243098351058407</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.5173775526782798</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.905573518806766</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>9.7296158362972669</v>
@@ -585,55 +474,55 @@
         <v>2.724118982033398</v>
       </c>
       <c r="AA2">
-        <v>12.744408038409651</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.2747224652715374</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>17.088418946411227</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.599979345911461</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>20.693433499688194</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.8103251749864793</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>20.278956350975083</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.9397864294655314</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>25.724265704011618</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.373236413802616</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.3866172008937658</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.0852784001608962</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.3994262606171302</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.8708698498221517</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>6.4868656885035598</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.7067620496898535</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.2224481990286042</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>6.873717954334829</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>1.0037128765181704</v>
       </c>
+      <c r="AY2">
+        <v>3.2823766634111529</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.45631503455024</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.5250276582661293</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.513665455963185</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>26.049775610142586</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.1264025636607871</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.4808297155736314</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>21.879843824404389</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.8250679003072605</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.049585412294217</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.7456816761422074</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.6615028774959875</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.609148234061207</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.5938355652301459</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>8.0717059160327356</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.9492414480394151</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.0013331017533478</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>13.749156295846296</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1.2800889698723645</v>
@@ -734,55 +623,55 @@
         <v>3.2518982656892503</v>
       </c>
       <c r="AA3">
-        <v>12.233263558613032</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>27.394802989547188</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>13.329307489163966</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.694561507071928</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>20.106285829586849</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.1722217999313971</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>18.627974711671772</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.8221056328824865</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>19.325446440602693</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>10.542867034709497</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.4017703114087769</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>10.142689377128592</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.7690085495513559</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.79845978970932</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8.3659602541050795</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2268735698086883</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.6311605939855949</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.6236983140968855</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>3.8255036083151999</v>
+      </c>
+      <c r="AY3">
+        <v>13.090514012889061</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.657817866987255</v>
+        <v>5.3266291156268153</v>
       </c>
       <c r="C2">
-        <v>4.7883158697842019</v>
+        <v>6.905573518806766</v>
       </c>
       <c r="D2">
-        <v>26.606145037967046</v>
+        <v>3.8708698498221517</v>
       </c>
       <c r="E2">
-        <v>33.038885635425743</v>
+        <v>4.2224481990286042</v>
       </c>
       <c r="F2">
         <v>12.927797285350996</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.456314106216912</v>
+        <v>8.0717059160327356</v>
       </c>
       <c r="C3">
-        <v>7.5250276462468975</v>
+        <v>13.749156295846296</v>
       </c>
       <c r="D3">
-        <v>5.5136652509994333</v>
+        <v>10.79845978970932</v>
       </c>
       <c r="E3">
-        <v>26.049771753116048</v>
+        <v>3.1364440778250153</v>
       </c>
       <c r="F3">
         <v>7.1264036870035454</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3.657817866987255</v>
-      </c>
       <c r="C2">
-        <v>4.7883158697842019</v>
+        <v>5.3266291156268153</v>
       </c>
       <c r="D2">
-        <v>26.606145037967046</v>
+        <v>2.3994262606171302</v>
       </c>
       <c r="E2">
-        <v>33.038885635425743</v>
+        <v>3.8708698498221517</v>
       </c>
       <c r="F2">
         <v>12.927797285350996</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.456314106216912</v>
+        <v>1.5938355652301459</v>
       </c>
       <c r="C3">
-        <v>7.5250276462468975</v>
+        <v>8.0717059160327356</v>
       </c>
       <c r="D3">
-        <v>5.5136652509994333</v>
+        <v>6.7690085495513559</v>
       </c>
       <c r="E3">
-        <v>26.049771753116048</v>
+        <v>10.79845978970932</v>
       </c>
       <c r="F3">
         <v>7.1264036870035454</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>3.6578178784609841</v>
+      </c>
       <c r="C2">
+        <v>4.788315844976526</v>
+      </c>
+      <c r="D2">
+        <v>26.606145154888829</v>
+      </c>
+      <c r="E2">
+        <v>33.038885986713332</v>
+      </c>
+      <c r="F2">
+        <v>12.927796103347845</v>
+      </c>
+      <c r="G2">
+        <v>8.882612012672352</v>
+      </c>
+      <c r="H2">
+        <v>22.031265681352465</v>
+      </c>
+      <c r="I2">
+        <v>5.1593515094821845</v>
+      </c>
+      <c r="J2">
+        <v>25.59093279928209</v>
+      </c>
+      <c r="K2">
+        <v>17.557727525424948</v>
+      </c>
+      <c r="L2">
+        <v>6.3752322356049929</v>
+      </c>
+      <c r="M2">
+        <v>3.8980315230377163</v>
+      </c>
+      <c r="O2">
         <v>5.3266291156268153</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>8.1243098351058407</v>
+      </c>
+      <c r="Q2">
+        <v>4.5173775526782798</v>
+      </c>
+      <c r="R2">
+        <v>6.905573518806766</v>
+      </c>
+      <c r="S2">
+        <v>9.7296158362972669</v>
+      </c>
+      <c r="T2">
+        <v>0.85992464911045929</v>
+      </c>
+      <c r="U2">
+        <v>6.3061464006533798</v>
+      </c>
+      <c r="V2">
+        <v>18.638715519355539</v>
+      </c>
+      <c r="W2">
+        <v>8.2665439650126071</v>
+      </c>
+      <c r="X2">
+        <v>6.4289388610742106</v>
+      </c>
+      <c r="Y2">
+        <v>1.4281619858555643</v>
+      </c>
+      <c r="AA2">
+        <v>12.744408038409651</v>
+      </c>
+      <c r="AB2">
+        <v>6.2747224652715374</v>
+      </c>
+      <c r="AC2">
+        <v>17.088418946411227</v>
+      </c>
+      <c r="AD2">
+        <v>18.599979345911461</v>
+      </c>
+      <c r="AE2">
+        <v>20.693433499688194</v>
+      </c>
+      <c r="AF2">
+        <v>8.8103251749864793</v>
+      </c>
+      <c r="AG2">
+        <v>20.278956350975083</v>
+      </c>
+      <c r="AH2">
+        <v>4.6916530724896912</v>
+      </c>
+      <c r="AI2">
+        <v>25.724265704011618</v>
+      </c>
+      <c r="AJ2">
+        <v>20.373236413802616</v>
+      </c>
+      <c r="AK2">
+        <v>6.3866172008937658</v>
+      </c>
+      <c r="AL2">
+        <v>4.0852784001608962</v>
+      </c>
+      <c r="AM2">
         <v>2.3994262606171302</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.8708698498221517</v>
       </c>
-      <c r="F2">
-        <v>12.927797285350996</v>
-      </c>
-      <c r="G2">
-        <v>8.8826107253899096</v>
-      </c>
-      <c r="H2">
-        <v>22.031266759541314</v>
-      </c>
-      <c r="I2">
-        <v>5.1593515201083369</v>
-      </c>
-      <c r="J2">
-        <v>25.590931313029586</v>
-      </c>
-      <c r="K2">
-        <v>17.557727465942673</v>
-      </c>
-      <c r="L2">
-        <v>6.3752316175115835</v>
-      </c>
-      <c r="M2">
-        <v>3.8980316688468508</v>
-      </c>
-      <c r="O2">
-        <v>5.3266291139736648</v>
-      </c>
-      <c r="P2">
-        <v>8.1243098513172569</v>
-      </c>
-      <c r="Q2">
-        <v>4.5173775881807741</v>
-      </c>
-      <c r="R2">
-        <v>6.9055733985179266</v>
-      </c>
-      <c r="S2">
-        <v>9.7296234716194423</v>
-      </c>
-      <c r="T2">
-        <v>0.85992464336051444</v>
-      </c>
-      <c r="U2">
-        <v>6.3061465479459882</v>
-      </c>
-      <c r="V2">
-        <v>18.638715187892348</v>
-      </c>
-      <c r="W2">
-        <v>8.2665444756760298</v>
-      </c>
-      <c r="X2">
-        <v>6.4289388727125143</v>
-      </c>
-      <c r="Y2">
-        <v>1.4281622080812146</v>
-      </c>
-      <c r="AA2">
-        <v>12.744401781815723</v>
-      </c>
-      <c r="AB2">
-        <v>6.2747224514784721</v>
-      </c>
-      <c r="AC2">
-        <v>17.08842097389379</v>
-      </c>
-      <c r="AD2">
-        <v>18.599986955250717</v>
-      </c>
-      <c r="AE2">
-        <v>20.693433716202026</v>
-      </c>
-      <c r="AF2">
-        <v>8.8103252918108979</v>
-      </c>
-      <c r="AG2">
-        <v>20.278956071683719</v>
-      </c>
-      <c r="AH2">
-        <v>4.6916538999322341</v>
-      </c>
-      <c r="AI2">
-        <v>25.724265578680541</v>
-      </c>
-      <c r="AJ2">
-        <v>20.373235825920251</v>
-      </c>
-      <c r="AK2">
-        <v>6.3866170850347173</v>
-      </c>
-      <c r="AL2">
-        <v>4.0852783895586073</v>
-      </c>
-      <c r="AM2">
-        <v>2.3994262618913336</v>
-      </c>
-      <c r="AN2">
-        <v>3.870869843535754</v>
-      </c>
       <c r="AO2">
-        <v>6.4868656504198983</v>
+        <v>6.4868656885035598</v>
       </c>
       <c r="AP2">
-        <v>4.8223328178281024</v>
+        <v>4.822332358675931</v>
       </c>
       <c r="AQ2">
-        <v>4.2224481843707062</v>
+        <v>4.2224481990286042</v>
       </c>
       <c r="AR2">
-        <v>6.8737179269686735</v>
+        <v>6.873717954334829</v>
       </c>
       <c r="AS2">
-        <v>5.7709845155724322</v>
+        <v>5.77098447436651</v>
       </c>
       <c r="AT2">
-        <v>1.3954191766462418</v>
+        <v>1.3954191806252032</v>
       </c>
       <c r="AU2">
-        <v>10.495552831705238</v>
+        <v>10.495552828965845</v>
       </c>
       <c r="AV2">
-        <v>5.9816075824370083</v>
+        <v>5.9816082955525518</v>
       </c>
       <c r="AW2">
-        <v>1.5603407690969791</v>
+        <v>1.5603407737897264</v>
       </c>
       <c r="AX2">
-        <v>1.0037128742420773</v>
+        <v>1.0037128765181704</v>
       </c>
       <c r="AY2">
-        <v>3.2823767183552128</v>
+        <v>3.2823766634111529</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>21.45631503455024</v>
+      </c>
+      <c r="C3">
+        <v>7.5250276582661293</v>
+      </c>
+      <c r="D3">
+        <v>5.5136654559632658</v>
+      </c>
+      <c r="E3">
+        <v>26.049775610142586</v>
+      </c>
+      <c r="F3">
+        <v>7.1264025636607871</v>
+      </c>
+      <c r="G3">
+        <v>7.4808297155736314</v>
+      </c>
+      <c r="H3">
+        <v>21.879843824404389</v>
+      </c>
+      <c r="I3">
+        <v>7.1483685625569988</v>
+      </c>
+      <c r="J3">
+        <v>17.049585412294217</v>
+      </c>
+      <c r="K3">
+        <v>6.7456816761422074</v>
+      </c>
+      <c r="L3">
+        <v>3.6615028774959875</v>
+      </c>
+      <c r="M3">
+        <v>13.609148234061207</v>
+      </c>
+      <c r="N3">
         <v>1.5938355652301459</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>8.0717059160327356</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>6.9492414480394151</v>
+      </c>
+      <c r="Q3">
+        <v>5.0013331017533478</v>
+      </c>
+      <c r="R3">
+        <v>13.749156295846296</v>
+      </c>
+      <c r="S3">
+        <v>1.5160243670089897</v>
+      </c>
+      <c r="T3">
+        <v>0.8607198845058075</v>
+      </c>
+      <c r="U3">
+        <v>12.811283936890774</v>
+      </c>
+      <c r="V3">
+        <v>9.0722004274169876</v>
+      </c>
+      <c r="W3">
+        <v>1.6886750298609181</v>
+      </c>
+      <c r="X3">
+        <v>3.2904132199270535</v>
+      </c>
+      <c r="Y3">
+        <v>3.2518982656892503</v>
+      </c>
+      <c r="AA3">
+        <v>12.233263558613032</v>
+      </c>
+      <c r="AB3">
+        <v>27.394802989547188</v>
+      </c>
+      <c r="AC3">
+        <v>13.553754979208154</v>
+      </c>
+      <c r="AD3">
+        <v>17.694561507071928</v>
+      </c>
+      <c r="AE3">
+        <v>20.106285829586849</v>
+      </c>
+      <c r="AF3">
+        <v>5.1722217999313971</v>
+      </c>
+      <c r="AG3">
+        <v>18.627974711671772</v>
+      </c>
+      <c r="AH3">
+        <v>2.0816521927969101</v>
+      </c>
+      <c r="AI3">
+        <v>19.325446440602693</v>
+      </c>
+      <c r="AJ3">
+        <v>10.542867034709497</v>
+      </c>
+      <c r="AK3">
+        <v>4.4017703114087769</v>
+      </c>
+      <c r="AL3">
+        <v>10.142689377128592</v>
+      </c>
+      <c r="AM3">
         <v>6.7690085495513559</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>10.79845978970932</v>
       </c>
-      <c r="F3">
-        <v>7.1264036870035454</v>
-      </c>
-      <c r="G3">
-        <v>7.4808297220097799</v>
-      </c>
-      <c r="H3">
-        <v>21.879843850344994</v>
-      </c>
-      <c r="I3">
-        <v>7.1483666473177756</v>
-      </c>
-      <c r="J3">
-        <v>17.049585396600296</v>
-      </c>
-      <c r="K3">
-        <v>6.7456813306193721</v>
-      </c>
-      <c r="L3">
-        <v>3.6615029222361728</v>
-      </c>
-      <c r="M3">
-        <v>13.61854870709036</v>
-      </c>
-      <c r="N3">
-        <v>1.5938355294829245</v>
-      </c>
-      <c r="O3">
-        <v>8.0717061320871597</v>
-      </c>
-      <c r="P3">
-        <v>6.9492414892849865</v>
-      </c>
-      <c r="Q3">
-        <v>5.0013331608367269</v>
-      </c>
-      <c r="R3">
-        <v>13.749156315631827</v>
-      </c>
-      <c r="S3">
-        <v>1.5160241057161958</v>
-      </c>
-      <c r="T3">
-        <v>0.86071988201861405</v>
-      </c>
-      <c r="U3">
-        <v>12.811284227633465</v>
-      </c>
-      <c r="V3">
-        <v>9.0722004083707883</v>
-      </c>
-      <c r="W3">
-        <v>1.6886750374267063</v>
-      </c>
-      <c r="X3">
-        <v>3.2904130345230809</v>
-      </c>
-      <c r="Y3">
-        <v>3.2518983242217594</v>
-      </c>
-      <c r="AA3">
-        <v>12.233261506463279</v>
-      </c>
-      <c r="AB3">
-        <v>27.39480322826061</v>
-      </c>
-      <c r="AC3">
-        <v>13.553754744815315</v>
-      </c>
-      <c r="AD3">
-        <v>17.69455990711668</v>
-      </c>
-      <c r="AE3">
-        <v>20.106287070837514</v>
-      </c>
-      <c r="AF3">
-        <v>5.1722218046918291</v>
-      </c>
-      <c r="AG3">
-        <v>18.627974472363146</v>
-      </c>
-      <c r="AH3">
-        <v>2.0816521945848083</v>
-      </c>
-      <c r="AI3">
-        <v>19.325446572720377</v>
-      </c>
-      <c r="AJ3">
-        <v>10.542867035337609</v>
-      </c>
-      <c r="AK3">
-        <v>4.4017704096401431</v>
-      </c>
-      <c r="AL3">
-        <v>10.142688787654388</v>
-      </c>
-      <c r="AM3">
-        <v>6.7690075480322518</v>
-      </c>
-      <c r="AN3">
-        <v>10.798459957511009</v>
-      </c>
       <c r="AO3">
-        <v>8.3659593790542228</v>
+        <v>8.3659602541050795</v>
       </c>
       <c r="AP3">
-        <v>1.8291880103090603</v>
+        <v>1.8291880479537799</v>
       </c>
       <c r="AQ3">
-        <v>3.1364453556392724</v>
+        <v>3.1364440778250153</v>
       </c>
       <c r="AR3">
-        <v>1.6236982659118491</v>
+        <v>1.6236983140968855</v>
       </c>
       <c r="AS3">
-        <v>1.6366126839390753</v>
+        <v>1.6366125963841174</v>
       </c>
       <c r="AT3">
-        <v>4.5760227951168329</v>
+        <v>4.5760230534065096</v>
       </c>
       <c r="AU3">
-        <v>13.658264163754282</v>
+        <v>13.658264168528566</v>
       </c>
       <c r="AV3">
-        <v>7.0786375510254329</v>
+        <v>7.0786363412342714</v>
       </c>
       <c r="AW3">
-        <v>8.5378191284483709</v>
+        <v>8.5378194560209515</v>
       </c>
       <c r="AX3">
-        <v>3.8255041866331445</v>
+        <v>3.8255036083151999</v>
       </c>
       <c r="AY3">
-        <v>13.090515456573383</v>
+        <v>13.090514012889061</v>
       </c>
     </row>
   </sheetData>
